--- a/pastel1.xlsx
+++ b/pastel1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephanieliu/Desktop/GitHub/projeto2_cd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB34DEA-5F58-7340-966B-02585FA865FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B173E50E-8450-1C4B-917B-15324ADCF290}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1780,8 +1780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
-      <selection activeCell="A225" sqref="A200:B225"/>
+    <sheetView tabSelected="1" topLeftCell="A289" zoomScale="98" workbookViewId="0">
+      <selection activeCell="D304" sqref="D304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
